--- a/All Links.xlsx
+++ b/All Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turjo\Desktop\Research Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD7FA1C-89D1-4D8C-BF1F-E613864EBB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC6042E-86FE-4788-AB97-3548B1BCBA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{A4DA63B3-7A6A-41E8-A384-BD6B948F635D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4DA63B3-7A6A-41E8-A384-BD6B948F635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Link</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6815340/</t>
-  </si>
-  <si>
-    <t>https://opg.optica.org/josa/abstract.cfm?uri=josa-73-3-332</t>
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/8969956</t>
@@ -75,10 +72,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +106,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7FDA7-5072-48DA-B8B4-4C6DA8C388A7}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -436,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -444,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -452,71 +460,80 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" location=".YqNLXXZBw2w" xr:uid="{D198E958-3940-4692-B685-12F4BEEFDC27}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{9B7480FB-F831-461E-AD57-175D4D84540F}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{6E7F0143-AC1F-47E5-82F4-D906DABE8C52}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{C588B005-06B1-4BB5-8C4F-65BF9BE66D73}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{2F32D621-041D-47CD-9F87-1D9F3BFBC35E}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{59F9533B-37B6-4688-A106-5CA9774D1EEF}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{311501FB-8DC5-43F2-AA1F-3D15F15EC70D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>